--- a/assets/BOs/Gaia.xlsx
+++ b/assets/BOs/Gaia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDCF2E8-2C06-48F8-97DA-D5CA24224940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928B65A6-ED9D-4364-9BAC-00192E0B4ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,9 +24,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="77">
   <si>
-    <t>Gaia - Aggressive Water - Calero</t>
-  </si>
-  <si>
     <t>Archaic</t>
   </si>
   <si>
@@ -385,9 +382,6 @@
   </si>
   <si>
     <t>Food villager builds Manor, then back to Food</t>
-  </si>
-  <si>
-    <t>Gaia - 10 citizens- DarthNox</t>
   </si>
   <si>
     <t>2 / 0 / 0 / 3</t>
@@ -894,7 +888,13 @@
     </r>
   </si>
   <si>
-    <t>Gaia 3:30 early advance - Mathilde Moksha</t>
+    <t>Aggressive Water - By Calero</t>
+  </si>
+  <si>
+    <t>10 citizens- By DarthNox</t>
+  </si>
+  <si>
+    <t>3:30 early advance - By Mathilde Moksha</t>
   </si>
 </sst>
 </file>
@@ -1314,7 +1314,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -1322,7 +1322,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="3" spans="1:4" ht="14.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1338,96 +1338,96 @@
     </row>
     <row r="4" spans="1:4" ht="15">
       <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15">
       <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="15">
       <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="15">
       <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="15">
       <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="15">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="15">
       <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" ht="15">
       <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -1438,17 +1438,17 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15">
@@ -1456,12 +1456,12 @@
       <c r="B15" s="3"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -1469,26 +1469,26 @@
     </row>
     <row r="17" spans="1:4" ht="14.25">
       <c r="A17" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15">
       <c r="A18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="12.75">
       <c r="C19" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="12.75">
@@ -1536,14 +1536,14 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
       <c r="A1" s="12" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="2" spans="1:4" ht="15.75">
       <c r="A2" s="14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="3" spans="1:4" ht="14.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1567,88 +1567,88 @@
     </row>
     <row r="4" spans="1:4" ht="14.25">
       <c r="A4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="14.25">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="15">
       <c r="A7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="15">
       <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="15">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" ht="15.75">
       <c r="A11" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -1656,10 +1656,10 @@
     </row>
     <row r="12" spans="1:4" ht="14.25">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="15" spans="1:4" ht="15.75">
       <c r="A15" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -1686,21 +1686,21 @@
     </row>
     <row r="16" spans="1:4" ht="14.25">
       <c r="A16" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15">
       <c r="A17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1766,7 +1766,7 @@
     </row>
     <row r="2" spans="1:4" ht="15.75">
       <c r="A2" s="14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -1774,7 +1774,7 @@
     </row>
     <row r="3" spans="1:4" ht="14.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1782,65 +1782,65 @@
     </row>
     <row r="4" spans="1:4" ht="15">
       <c r="A4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" ht="15">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="15">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="15">
       <c r="A7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="15">
       <c r="A8" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="15.75">
       <c r="A9" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="10" spans="1:4" ht="14.25">
       <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1856,19 +1856,19 @@
     </row>
     <row r="11" spans="1:4" ht="15">
       <c r="A11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="15.75">
       <c r="A12" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="13" spans="1:4" ht="14.25">
       <c r="A13" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="1"/>
@@ -1884,20 +1884,20 @@
     </row>
     <row r="14" spans="1:4" ht="15">
       <c r="A14" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" ht="15">
       <c r="A15" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>

--- a/assets/BOs/Gaia.xlsx
+++ b/assets/BOs/Gaia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928B65A6-ED9D-4364-9BAC-00192E0B4ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6DAC6A-E32C-4F1A-9F89-F7C02CE3DA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="79">
   <si>
     <t>Archaic</t>
   </si>
@@ -895,13 +895,19 @@
   </si>
   <si>
     <t>3:30 early advance - By Mathilde Moksha</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=S5pEs_GYqlg&amp;t=&amp;ab_channel=DeitiesofDeath</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9y0Hryukz1Y&amp;t=&amp;ab_channel=DeitiesofDeath</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1016,6 +1022,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1046,10 +1060,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1080,8 +1095,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1300,8 +1317,8 @@
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1491,6 +1508,11 @@
         <v>31</v>
       </c>
     </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A20" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
     <row r="21" spans="1:4" ht="12.75">
       <c r="A21" s="15"/>
       <c r="B21" s="13"/>
@@ -1527,6 +1549,9 @@
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A21:D21"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A20" r:id="rId1" xr:uid="{5923E42A-2BB5-4C01-A272-CE11587F5493}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1536,7 +1561,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -1701,6 +1726,11 @@
       </c>
       <c r="D17" s="5" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="16" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1739,6 +1769,9 @@
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A20:D20"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A18" r:id="rId1" tooltip="https://www.youtube.com/watch?v=S5pEs_GYqlg&amp;t=&amp;ab_channel=DeitiesofDeath" xr:uid="{33722FA0-90A9-4631-8E57-B1FC1CA792C5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1747,7 +1780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42976E10-DC50-4E32-AF56-DAAFD24A2573}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>

--- a/assets/BOs/Gaia.xlsx
+++ b/assets/BOs/Gaia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6DAC6A-E32C-4F1A-9F89-F7C02CE3DA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B5BF69-FF15-4291-A177-71344B6B5C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -62,9 +62,6 @@
 1 Builds dock, manor after that to Wood</t>
   </si>
   <si>
-    <t>cast Gaia Forest</t>
-  </si>
-  <si>
     <t>Auto-queue Fishing Ship</t>
   </si>
   <si>
@@ -601,9 +598,6 @@
   </si>
   <si>
     <t>2 starting hero citizens to food</t>
-  </si>
-  <si>
-    <t>Cast the gaia forest either next to the TC or to block out an entrance to the base</t>
   </si>
   <si>
     <r>
@@ -901,6 +895,12 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=9y0Hryukz1Y&amp;t=&amp;ab_channel=DeitiesofDeath</t>
+  </si>
+  <si>
+    <t>cast Forest</t>
+  </si>
+  <si>
+    <t>Cast the forest either next to the TC or to block out an entrance to the base</t>
   </si>
 </sst>
 </file>
@@ -1087,6 +1087,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1095,7 +1096,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1317,35 +1317,35 @@
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1"/>
-    <col min="2" max="2" width="50.42578125" customWidth="1"/>
-    <col min="3" max="3" width="62.5703125" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" customWidth="1"/>
+    <col min="2" max="2" width="50.44140625" customWidth="1"/>
+    <col min="3" max="3" width="62.5546875" customWidth="1"/>
     <col min="4" max="4" width="50" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A1" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="14" t="s">
+      <c r="A1" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.6">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-    </row>
-    <row r="3" spans="1:4" ht="14.25">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="1:4" ht="13.8">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1353,7 +1353,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="15">
+    <row r="4" spans="1:4" ht="13.8">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1361,163 +1361,163 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="13.8">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="15">
+    <row r="6" spans="1:4" ht="13.8">
       <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="15">
+    <row r="7" spans="1:4" ht="13.8">
       <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="15">
+    <row r="8" spans="1:4" ht="13.8">
       <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="15">
+    <row r="9" spans="1:4" ht="13.8">
       <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="13.8">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" ht="15">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" ht="13.8">
+      <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" ht="15">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="1" t="s">
+    </row>
+    <row r="12" spans="1:4" ht="15.6">
+      <c r="A12" s="15" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-    </row>
-    <row r="13" spans="1:4" ht="14.25">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+    </row>
+    <row r="13" spans="1:4" ht="13.8">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="14.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="13.8">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15">
+    </row>
+    <row r="15" spans="1:4" ht="13.8">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.6">
+      <c r="A16" s="15" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-    </row>
-    <row r="17" spans="1:4" ht="14.25">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+    </row>
+    <row r="17" spans="1:4" ht="13.8">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15">
+    <row r="18" spans="1:4" ht="13.8">
       <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="5" t="s">
+    </row>
+    <row r="19" spans="1:4" ht="13.2">
+      <c r="C19" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="12.75">
-      <c r="C19" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A20" s="16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="12.75">
-      <c r="A21" s="15"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
+      <c r="A20" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="13.2">
+      <c r="A21" s="16"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
     </row>
     <row r="22" spans="1:4" ht="15">
       <c r="A22" s="6"/>
@@ -1529,13 +1529,13 @@
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
     </row>
-    <row r="25" spans="1:4" ht="12.75">
+    <row r="25" spans="1:4" ht="13.2">
       <c r="A25" s="8"/>
     </row>
     <row r="26" spans="1:4" ht="15">
       <c r="A26" s="7"/>
     </row>
-    <row r="27" spans="1:4" ht="12.75">
+    <row r="27" spans="1:4" ht="13.2">
       <c r="A27" s="8"/>
     </row>
     <row r="28" spans="1:4" ht="15">
@@ -1561,28 +1561,28 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="18">
-      <c r="A1" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="14" t="s">
+    <row r="1" spans="1:4" ht="17.399999999999999">
+      <c r="A1" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.6">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-    </row>
-    <row r="3" spans="1:4" ht="14.25">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="1:4" ht="13.8">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1590,154 +1590,154 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="14.25">
+    <row r="4" spans="1:4" ht="13.8">
       <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="13.8">
+      <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="14.25">
-      <c r="A5" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="14.25">
+    <row r="6" spans="1:4" ht="13.8">
       <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="13.8">
+      <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" ht="15">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="13.8">
+      <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" ht="15">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="13.8">
+      <c r="A9" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="15">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="13.8">
+      <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" ht="15">
-      <c r="A10" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75">
-      <c r="A11" s="14" t="s">
+    <row r="11" spans="1:4" ht="15.6">
+      <c r="A11" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+    </row>
+    <row r="12" spans="1:4" ht="13.8">
+      <c r="A12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-    </row>
-    <row r="12" spans="1:4" ht="14.25">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="14.25">
+    <row r="13" spans="1:4" ht="13.8">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="15">
+    <row r="14" spans="1:4" ht="13.8">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="15.75">
-      <c r="A15" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-    </row>
-    <row r="16" spans="1:4" ht="14.25">
+    <row r="15" spans="1:4" ht="15.6">
+      <c r="A15" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="1:4" ht="13.8">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15">
+    <row r="17" spans="1:4" ht="13.8">
       <c r="A17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="16" t="s">
-        <v>77</v>
+      <c r="A18" s="12" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="15"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4" ht="15">
       <c r="A21" s="6"/>
@@ -1780,32 +1780,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42976E10-DC50-4E32-AF56-DAAFD24A2573}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="142" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18">
-      <c r="A1" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="14" t="s">
+    <row r="1" spans="1:4" ht="17.399999999999999">
+      <c r="A1" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.6">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-    </row>
-    <row r="3" spans="1:4" ht="14.25">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="1:4" ht="13.8">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1813,73 +1813,73 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="15">
+    <row r="4" spans="1:4" ht="13.8">
       <c r="A4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="13.8">
+      <c r="A5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" ht="15">
-      <c r="A5" s="1" t="s">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="13.8">
+      <c r="A6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" ht="15">
-      <c r="A6" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="15">
+    <row r="7" spans="1:4" ht="13.8">
       <c r="A7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="13.8">
+      <c r="A8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" ht="15">
-      <c r="A8" s="1" t="s">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.6">
+      <c r="A9" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75">
-      <c r="A9" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-    </row>
-    <row r="10" spans="1:4" ht="14.25">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" spans="1:4" ht="13.8">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -1887,27 +1887,27 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="15">
+    <row r="11" spans="1:4" ht="13.8">
       <c r="A11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.6">
+      <c r="A12" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.75">
-      <c r="A12" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-    </row>
-    <row r="13" spans="1:4" ht="14.25">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+    </row>
+    <row r="13" spans="1:4" ht="13.8">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -1915,22 +1915,22 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="15">
+    <row r="14" spans="1:4" ht="13.8">
       <c r="A14" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="15">
+    <row r="15" spans="1:4" ht="13.8">
       <c r="A15" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>

--- a/assets/BOs/Gaia.xlsx
+++ b/assets/BOs/Gaia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B5BF69-FF15-4291-A177-71344B6B5C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CFBCDA-F2A2-4305-9508-AE4114D57BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -882,15 +882,6 @@
     </r>
   </si>
   <si>
-    <t>Aggressive Water - By Calero</t>
-  </si>
-  <si>
-    <t>10 citizens- By DarthNox</t>
-  </si>
-  <si>
-    <t>3:30 early advance - By Mathilde Moksha</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=S5pEs_GYqlg&amp;t=&amp;ab_channel=DeitiesofDeath</t>
   </si>
   <si>
@@ -901,6 +892,15 @@
   </si>
   <si>
     <t>Cast the forest either next to the TC or to block out an entrance to the base</t>
+  </si>
+  <si>
+    <t>OUTDATED - 3:30 early advance - By Mathilde Moksha</t>
+  </si>
+  <si>
+    <t>OUTDATED - 10 citizens- By DarthNox</t>
+  </si>
+  <si>
+    <t>OUTDATED - Aggressive Water - By Calero</t>
   </si>
 </sst>
 </file>
@@ -1317,27 +1317,27 @@
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" customWidth="1"/>
-    <col min="2" max="2" width="50.44140625" customWidth="1"/>
-    <col min="3" max="3" width="62.5546875" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="50.42578125" customWidth="1"/>
+    <col min="3" max="3" width="62.5703125" customWidth="1"/>
     <col min="4" max="4" width="50" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" spans="1:4" ht="15.6">
+    <row r="2" spans="1:4">
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
@@ -1345,7 +1345,7 @@
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
     </row>
-    <row r="3" spans="1:4" ht="13.8">
+    <row r="3" spans="1:4" ht="14.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1353,7 +1353,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="13.8">
+    <row r="4" spans="1:4" ht="15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1361,13 +1361,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="13.8">
+    <row r="5" spans="1:4" ht="15">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1377,7 +1377,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="13.8">
+    <row r="6" spans="1:4" ht="15">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1387,7 +1387,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="13.8">
+    <row r="7" spans="1:4" ht="15">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1397,7 +1397,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="13.8">
+    <row r="8" spans="1:4" ht="15">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1407,7 +1407,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="13.8">
+    <row r="9" spans="1:4" ht="15">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="13.8">
+    <row r="10" spans="1:4" ht="15">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="13.8">
+    <row r="11" spans="1:4" ht="15">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.6">
+    <row r="12" spans="1:4">
       <c r="A12" s="15" t="s">
         <v>20</v>
       </c>
@@ -1450,7 +1450,7 @@
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
     </row>
-    <row r="13" spans="1:4" ht="13.8">
+    <row r="13" spans="1:4" ht="14.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1458,7 +1458,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="13.8">
+    <row r="14" spans="1:4" ht="14.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
@@ -1468,7 +1468,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="13.8">
+    <row r="15" spans="1:4" ht="15">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="1"/>
@@ -1476,7 +1476,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.6">
+    <row r="16" spans="1:4">
       <c r="A16" s="15" t="s">
         <v>25</v>
       </c>
@@ -1484,12 +1484,12 @@
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
     </row>
-    <row r="17" spans="1:4" ht="13.8">
+    <row r="17" spans="1:4" ht="14.25">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="13.8">
+    <row r="18" spans="1:4" ht="15">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -1503,17 +1503,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="13.2">
+    <row r="19" spans="1:4" ht="12.75">
       <c r="C19" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1">
       <c r="A20" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="13.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="12.75">
       <c r="A21" s="16"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -1529,13 +1529,13 @@
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
     </row>
-    <row r="25" spans="1:4" ht="13.2">
+    <row r="25" spans="1:4" ht="12.75">
       <c r="A25" s="8"/>
     </row>
     <row r="26" spans="1:4" ht="15">
       <c r="A26" s="7"/>
     </row>
-    <row r="27" spans="1:4" ht="13.2">
+    <row r="27" spans="1:4" ht="12.75">
       <c r="A27" s="8"/>
     </row>
     <row r="28" spans="1:4" ht="15">
@@ -1561,20 +1561,20 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.399999999999999">
+    <row r="1" spans="1:4" ht="18">
       <c r="A1" s="13" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" spans="1:4" ht="15.6">
+    <row r="2" spans="1:4" ht="15.75">
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
@@ -1582,7 +1582,7 @@
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
     </row>
-    <row r="3" spans="1:4" ht="13.8">
+    <row r="3" spans="1:4" ht="14.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1590,7 +1590,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="13.8">
+    <row r="4" spans="1:4" ht="14.25">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -1598,13 +1598,13 @@
         <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="13.8">
+    <row r="5" spans="1:4" ht="14.25">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
@@ -1614,7 +1614,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="13.8">
+    <row r="6" spans="1:4" ht="14.25">
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="13.8">
+    <row r="7" spans="1:4" ht="15">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
@@ -1638,7 +1638,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="13.8">
+    <row r="8" spans="1:4" ht="15">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="13.8">
+    <row r="9" spans="1:4" ht="15">
       <c r="A9" s="1" t="s">
         <v>43</v>
       </c>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="13.8">
+    <row r="10" spans="1:4" ht="15">
       <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
@@ -1671,7 +1671,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="15.6">
+    <row r="11" spans="1:4" ht="15.75">
       <c r="A11" s="15" t="s">
         <v>46</v>
       </c>
@@ -1679,7 +1679,7 @@
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
     </row>
-    <row r="12" spans="1:4" ht="13.8">
+    <row r="12" spans="1:4" ht="14.25">
       <c r="A12" s="1" t="s">
         <v>47</v>
       </c>
@@ -1689,19 +1689,19 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="13.8">
+    <row r="13" spans="1:4" ht="14.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="13.8">
+    <row r="14" spans="1:4" ht="15">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="15.6">
+    <row r="15" spans="1:4" ht="15.75">
       <c r="A15" s="15" t="s">
         <v>49</v>
       </c>
@@ -1709,12 +1709,12 @@
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
     </row>
-    <row r="16" spans="1:4" ht="13.8">
+    <row r="16" spans="1:4" ht="14.25">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="13.8">
+    <row r="17" spans="1:4" ht="15">
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
@@ -1730,7 +1730,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1780,24 +1780,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42976E10-DC50-4E32-AF56-DAAFD24A2573}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="142" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.399999999999999">
+    <row r="1" spans="1:4" ht="18">
       <c r="A1" s="13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" spans="1:4" ht="15.6">
+    <row r="2" spans="1:4" ht="15.75">
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
@@ -1805,7 +1805,7 @@
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
     </row>
-    <row r="3" spans="1:4" ht="13.8">
+    <row r="3" spans="1:4" ht="14.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1813,7 +1813,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="13.8">
+    <row r="4" spans="1:4" ht="15">
       <c r="A4" s="1" t="s">
         <v>53</v>
       </c>
@@ -1821,11 +1821,11 @@
         <v>54</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="13.8">
+    <row r="5" spans="1:4" ht="15">
       <c r="A5" s="1" t="s">
         <v>55</v>
       </c>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="13.8">
+    <row r="6" spans="1:4" ht="15">
       <c r="A6" s="1" t="s">
         <v>57</v>
       </c>
@@ -1847,7 +1847,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="13.8">
+    <row r="7" spans="1:4" ht="15">
       <c r="A7" s="1" t="s">
         <v>58</v>
       </c>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="13.8">
+    <row r="8" spans="1:4" ht="15">
       <c r="A8" s="1" t="s">
         <v>61</v>
       </c>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="15.6">
+    <row r="9" spans="1:4" ht="15.75">
       <c r="A9" s="15" t="s">
         <v>63</v>
       </c>
@@ -1879,7 +1879,7 @@
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
     </row>
-    <row r="10" spans="1:4" ht="13.8">
+    <row r="10" spans="1:4" ht="14.25">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -1887,7 +1887,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="13.8">
+    <row r="11" spans="1:4" ht="15">
       <c r="A11" s="9" t="s">
         <v>64</v>
       </c>
@@ -1899,7 +1899,7 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="15.6">
+    <row r="12" spans="1:4" ht="15.75">
       <c r="A12" s="15" t="s">
         <v>67</v>
       </c>
@@ -1907,7 +1907,7 @@
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
     </row>
-    <row r="13" spans="1:4" ht="13.8">
+    <row r="13" spans="1:4" ht="14.25">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -1915,7 +1915,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="13.8">
+    <row r="14" spans="1:4" ht="15">
       <c r="A14" s="11" t="s">
         <v>68</v>
       </c>
@@ -1925,7 +1925,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="13.8">
+    <row r="15" spans="1:4" ht="15">
       <c r="A15" s="9" t="s">
         <v>70</v>
       </c>

--- a/assets/BOs/Gaia.xlsx
+++ b/assets/BOs/Gaia.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CFBCDA-F2A2-4305-9508-AE4114D57BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73D7E5F-ADB2-41C4-9D81-89940E3F4FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil3" sheetId="4" r:id="rId1"/>
     <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil2" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
   <si>
     <t>Archaic</t>
   </si>
@@ -30,355 +30,16 @@
     <t>Food / Wood / Gold / Favor</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">0 / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> / 0 / 3</t>
-    </r>
-  </si>
-  <si>
-    <t>Initial 2 vills: 
-1 to wood, 
-1 Builds dock, manor after that to Wood</t>
-  </si>
-  <si>
-    <t>Auto-queue Fishing Ship</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> / 2 / 0 / 3</t>
-    </r>
-  </si>
-  <si>
     <t>2 to Food</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">2 / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> / 0 / 3</t>
-    </r>
-  </si>
-  <si>
     <t>1 to Wood</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">2 / 3 / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> / 3</t>
-    </r>
-  </si>
-  <si>
     <t>1 to Gold</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> / 3 / 1 / 3</t>
-    </r>
-  </si>
-  <si>
     <t>1 to Food</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>3 /</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> 4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> / 1 / 3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">4 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>4 / 1 / 3</t>
-    </r>
-  </si>
-  <si>
-    <t>Gold villager builds Temple when enough resources, then back to Gold</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> /</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">4 / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">4 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>/ 3</t>
-    </r>
-  </si>
-  <si>
-    <t>2 to Gold</t>
-  </si>
-  <si>
-    <t>Food villager builds second dock, then to Gold</t>
-  </si>
-  <si>
-    <t>Stop auto-queue FS at 9 FS</t>
-  </si>
-  <si>
-    <t>Advance - Oceanus (3.45)</t>
-  </si>
-  <si>
-    <t>Auto-queue FS at second dock</t>
-  </si>
-  <si>
-    <t>Food villager builds Manor, Economic guild, then back on Food</t>
-  </si>
-  <si>
-    <t>Pre-queue Pickaxe, Hand Axe</t>
-  </si>
-  <si>
-    <t>Transform oracle to Hero, take relics</t>
-  </si>
-  <si>
-    <t>Classical (4.45)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">3 / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> / 4 / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>4</t>
-    </r>
-  </si>
-  <si>
-    <t>4 to Wood</t>
-  </si>
-  <si>
-    <t>Food villager builds a Military Barack, then back to Food
-Food vilager builds a Counter Baracks, then back to Food</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Make Murmillo + Turma
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Make 1 Oracle</t>
-    </r>
-  </si>
-  <si>
-    <t>Food villager builds Manor, then back to Food</t>
   </si>
   <si>
     <t>2 / 0 / 0 / 3</t>
@@ -885,9 +546,6 @@
     <t>https://www.youtube.com/watch?v=S5pEs_GYqlg&amp;t=&amp;ab_channel=DeitiesofDeath</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=9y0Hryukz1Y&amp;t=&amp;ab_channel=DeitiesofDeath</t>
-  </si>
-  <si>
     <t>cast Forest</t>
   </si>
   <si>
@@ -900,14 +558,183 @@
     <t>OUTDATED - 10 citizens- By DarthNox</t>
   </si>
   <si>
-    <t>OUTDATED - Aggressive Water - By Calero</t>
+    <t>Aggressive Water - By DarthNox</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">2 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / 3</t>
+    </r>
+  </si>
+  <si>
+    <t>2 starting citizenst to food</t>
+  </si>
+  <si>
+    <t>Build eco guild get Handaxe and Pickaxe</t>
+  </si>
+  <si>
+    <t>Cast trees</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / 0 / 3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">3 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 1 / 3</t>
+    </r>
+  </si>
+  <si>
+    <t>Heroize the Gold citizen</t>
+  </si>
+  <si>
+    <t>Gold citizen builds a mannor</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 2 / 1 / 3</t>
+    </r>
+  </si>
+  <si>
+    <t>Gold citizen builds the temple</t>
+  </si>
+  <si>
+    <t>Move wood vils to food</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 3 / 3 / 3</t>
+    </r>
+  </si>
+  <si>
+    <t>Re macro vils to 3on each resource</t>
+  </si>
+  <si>
+    <t>Advance - Oceanus (3.30)</t>
+  </si>
+  <si>
+    <t>Classical (4.30)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 3 / 3 / 3</t>
+    </r>
+  </si>
+  <si>
+    <t>3 more citizens to Food</t>
+  </si>
+  <si>
+    <t>1 vil from gold builds a barack and 1 from wood builds a counterbarack</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gedhKlIlI9U&amp;t=3s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -989,17 +816,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
@@ -1062,9 +878,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1083,11 +899,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1311,39 +1131,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14A43C49-60AE-4F1A-92E1-9DA21BD89A98}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1"/>
-    <col min="2" max="2" width="50.42578125" customWidth="1"/>
-    <col min="3" max="3" width="62.5703125" customWidth="1"/>
-    <col min="4" max="4" width="50" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A1" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="15" t="s">
+    <row r="1" spans="1:4" ht="18">
+      <c r="A1" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:4" ht="14.25">
       <c r="A3" s="1" t="s">
@@ -1353,171 +1164,156 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="15">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
+    <row r="4" spans="1:4" ht="43.5">
+      <c r="A4" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="15">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
+      <c r="A6" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="15">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
+      <c r="A7" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="15">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
+      <c r="A8" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="15">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
+      <c r="A9" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="15">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>15</v>
-      </c>
+    <row r="10" spans="1:4" ht="14.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="15">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
+    <row r="11" spans="1:4" ht="14.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75">
+      <c r="A12" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
     </row>
     <row r="13" spans="1:4" ht="14.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" ht="14.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" ht="15">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-    </row>
-    <row r="17" spans="1:4" ht="14.25">
-      <c r="A17" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15">
-      <c r="A18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="12.75">
-      <c r="C19" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.75">
+      <c r="A16" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+    </row>
+    <row r="17" spans="1:4" ht="15">
+      <c r="A17" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="12.75">
-      <c r="A21" s="16"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="18"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
     </row>
     <row r="22" spans="1:4" ht="15">
       <c r="A22" s="6"/>
@@ -1529,13 +1325,13 @@
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
     </row>
-    <row r="25" spans="1:4" ht="12.75">
+    <row r="25" spans="1:4">
       <c r="A25" s="8"/>
     </row>
     <row r="26" spans="1:4" ht="15">
       <c r="A26" s="7"/>
     </row>
-    <row r="27" spans="1:4" ht="12.75">
+    <row r="27" spans="1:4">
       <c r="A27" s="8"/>
     </row>
     <row r="28" spans="1:4" ht="15">
@@ -1549,9 +1345,6 @@
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A21:D21"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A20" r:id="rId1" xr:uid="{5923E42A-2BB5-4C01-A272-CE11587F5493}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1560,27 +1353,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2812378-9C7F-48F5-97DE-23911E57C433}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
-      <c r="A1" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="A1" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:4" ht="14.25">
       <c r="A3" s="1" t="s">
@@ -1592,99 +1385,99 @@
     </row>
     <row r="4" spans="1:4" ht="14.25">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="14.25">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="15">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="15">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="15">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" ht="15.75">
-      <c r="A11" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
+      <c r="A11" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
     </row>
     <row r="12" spans="1:4" ht="14.25">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1702,12 +1495,12 @@
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" ht="15.75">
-      <c r="A15" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
+      <c r="A15" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
     </row>
     <row r="16" spans="1:4" ht="14.25">
       <c r="A16" s="1" t="s">
@@ -1716,28 +1509,28 @@
     </row>
     <row r="17" spans="1:4" ht="15">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="12" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="16"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
     </row>
     <row r="21" spans="1:4" ht="15">
       <c r="A21" s="6"/>
@@ -1790,20 +1583,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
-      <c r="A1" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="A1" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:4" ht="14.25">
       <c r="A3" s="1" t="s">
@@ -1815,69 +1608,69 @@
     </row>
     <row r="4" spans="1:4" ht="15">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" ht="15">
       <c r="A5" s="1" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="15">
       <c r="A6" s="1" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="15">
       <c r="A7" s="1" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="15">
       <c r="A8" s="1" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="15.75">
-      <c r="A9" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
+      <c r="A9" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
     </row>
     <row r="10" spans="1:4" ht="14.25">
       <c r="A10" s="1" t="s">
@@ -1889,23 +1682,23 @@
     </row>
     <row r="11" spans="1:4" ht="15">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="15.75">
-      <c r="A12" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
+      <c r="A12" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
     </row>
     <row r="13" spans="1:4" ht="14.25">
       <c r="A13" s="1" t="s">
@@ -1917,20 +1710,20 @@
     </row>
     <row r="14" spans="1:4" ht="15">
       <c r="A14" s="11" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" ht="15">
       <c r="A15" s="9" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>

--- a/assets/BOs/Gaia.xlsx
+++ b/assets/BOs/Gaia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73D7E5F-ADB2-41C4-9D81-89940E3F4FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABABA9F1-EC01-425E-9778-91CED88D631A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil3" sheetId="4" r:id="rId1"/>
@@ -558,9 +558,6 @@
     <t>OUTDATED - 10 citizens- By DarthNox</t>
   </si>
   <si>
-    <t>Aggressive Water - By DarthNox</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -728,6 +725,9 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=gedhKlIlI9U&amp;t=3s</t>
+  </si>
+  <si>
+    <t>Universal BO - By DarthNox</t>
   </si>
 </sst>
 </file>
@@ -1134,15 +1134,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14A43C49-60AE-4F1A-92E1-9DA21BD89A98}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
       <c r="A1" s="15" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -1166,21 +1166,21 @@
     </row>
     <row r="4" spans="1:4" ht="43.5">
       <c r="A4" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="C4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15">
       <c r="A5" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -1190,14 +1190,14 @@
     </row>
     <row r="6" spans="1:4" ht="15">
       <c r="A6" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15">
@@ -1208,33 +1208,33 @@
         <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="15">
       <c r="A8" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15">
       <c r="A9" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -1252,7 +1252,7 @@
     </row>
     <row r="12" spans="1:4" ht="15.75">
       <c r="A12" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -1278,7 +1278,7 @@
     </row>
     <row r="16" spans="1:4" ht="15.75">
       <c r="A16" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -1286,13 +1286,13 @@
     </row>
     <row r="17" spans="1:4" ht="15">
       <c r="A17" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
         <v>68</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>69</v>
-      </c>
-      <c r="C17" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.25">
@@ -1306,7 +1306,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1353,7 +1353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2812378-9C7F-48F5-97DE-23911E57C433}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>

--- a/assets/BOs/Gaia.xlsx
+++ b/assets/BOs/Gaia.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F984B7BB-91D1-413A-92A0-7F6F6AE2D772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C474E04-87D7-46E8-9A6C-D6ED7E005C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil4" sheetId="5" r:id="rId1"/>
-    <sheet name="Feuil3" sheetId="4" r:id="rId2"/>
+    <sheet name="Feuil2" sheetId="6" r:id="rId2"/>
     <sheet name="Feuil1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="84">
   <si>
     <t>Archaic</t>
   </si>
@@ -358,28 +358,6 @@
     <t>Move wood vils to food</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> / 3 / 3 / 3</t>
-    </r>
-  </si>
-  <si>
-    <t>Re macro vils to 3on each resource</t>
-  </si>
-  <si>
     <t>Advance - Oceanus (3.30)</t>
   </si>
   <si>
@@ -656,9 +634,6 @@
     <t>0/5/3</t>
   </si>
   <si>
-    <t>Send a vill to make your second and third dock dock (if medit) or build even a third dock on the opposite side (if anatolia)</t>
-  </si>
-  <si>
     <t>You food income is entirely from water to you better not lose it!</t>
   </si>
   <si>
@@ -672,6 +647,58 @@
   </si>
   <si>
     <t>Standard Gaia Water - By Narcotic</t>
+  </si>
+  <si>
+    <t>Send a vill to make your second and third dock  (if medit) or build even a third dock on the opposite side (if anatolia)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / 3 / 3</t>
+    </r>
+  </si>
+  <si>
+    <t>1 / 4 / 4 / 3</t>
+  </si>
+  <si>
+    <t>Remacro</t>
+  </si>
+  <si>
+    <t>For a fast second tc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 hero citizens from gold start walking towards the tc at 4:15 </t>
+  </si>
+  <si>
+    <t>3 / 3 / 3 / 3</t>
+  </si>
+  <si>
+    <t>For 1 tc play</t>
+  </si>
+  <si>
+    <t>4 / 3 / 2 / 3</t>
+  </si>
+  <si>
+    <t>Cast Gaia trees on top of the citizens building a tc to protect them</t>
+  </si>
+  <si>
+    <t>For 2 tc</t>
+  </si>
+  <si>
+    <t>For 1 tc</t>
   </si>
 </sst>
 </file>
@@ -679,14 +706,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="[$-410]General"/>
-    <numFmt numFmtId="169" formatCode="[$€-410]&quot; &quot;#,##0.00;[Red]&quot;-&quot;[$€-410]&quot; &quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="[$-410]General"/>
+    <numFmt numFmtId="165" formatCode="[$€-410]&quot; &quot;#,##0.00;[Red]&quot;-&quot;[$€-410]&quot; &quot;#,##0.00"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="28">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -836,6 +870,28 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -869,70 +925,91 @@
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="164" fontId="24" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="168" fontId="19" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="23" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Excel Built-in Hyperlink" xfId="3" xr:uid="{18FDA462-16A3-4309-97B4-057B8808F174}"/>
@@ -1158,253 +1235,255 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DA08D3A-9ABF-4FD8-9142-03C433A80225}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1" spans="1:4" ht="21">
-      <c r="A1" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="A1" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" ht="13.8">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="A2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:4" ht="13.8">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:4" ht="13.8">
+      <c r="A4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-    </row>
-    <row r="4" spans="1:4" ht="13.8">
-      <c r="A4" s="19" t="s">
+      <c r="C4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:4" ht="13.8">
+      <c r="A5" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="B5" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="16"/>
-    </row>
-    <row r="5" spans="1:4" ht="13.8">
-      <c r="A5" s="20" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" spans="1:4" ht="13.8">
+      <c r="A6" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B6" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-    </row>
-    <row r="6" spans="1:4" ht="13.8">
-      <c r="A6" s="20" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="1:4" ht="13.8">
+      <c r="A7" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B7" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-    </row>
-    <row r="7" spans="1:4" ht="13.8">
-      <c r="A7" s="20" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="1:4" ht="13.8">
+      <c r="A8" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B8" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-    </row>
-    <row r="8" spans="1:4" ht="13.8">
-      <c r="A8" s="20" t="s">
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+    </row>
+    <row r="9" spans="1:4" ht="13.8">
+      <c r="A9" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B9" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" spans="1:4" ht="13.8">
+      <c r="A10" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-    </row>
-    <row r="9" spans="1:4" ht="13.8">
-      <c r="A9" s="20" t="s">
+      <c r="B10" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="18"/>
-    </row>
-    <row r="10" spans="1:4" ht="13.8">
-      <c r="A10" s="20" t="s">
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:4" ht="13.8">
+      <c r="A11" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="16" t="s">
+      <c r="B11" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.6">
+      <c r="A12" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="16"/>
-    </row>
-    <row r="11" spans="1:4" ht="13.8">
-      <c r="A11" s="20" t="s">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+    </row>
+    <row r="13" spans="1:4" ht="13.8">
+      <c r="A13" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.6">
-      <c r="A12" s="25" t="s">
+      <c r="B13" s="12"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:4" ht="13.8">
+      <c r="A14" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-    </row>
-    <row r="13" spans="1:4" ht="13.8">
-      <c r="A13" s="16" t="s">
+      <c r="B14" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" ht="13.8">
+      <c r="A15" s="14"/>
+      <c r="B15" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-    </row>
-    <row r="14" spans="1:4" ht="13.8">
-      <c r="A14" s="19" t="s">
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" ht="13.8">
+      <c r="A16" s="14"/>
+      <c r="B16" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="1:4" ht="13.8">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-    </row>
-    <row r="15" spans="1:4" ht="13.8">
-      <c r="A15" s="20"/>
-      <c r="B15" s="18" t="s">
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="1:4" ht="13.8">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-    </row>
-    <row r="16" spans="1:4" ht="13.8">
-      <c r="A16" s="20"/>
-      <c r="B16" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-    </row>
-    <row r="17" spans="1:4" ht="13.8">
-      <c r="A17" s="16"/>
-      <c r="B17" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-    </row>
-    <row r="18" spans="1:4" ht="13.8">
-      <c r="A18" s="16"/>
-      <c r="B18" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:4" ht="13.8">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:4" ht="13.8">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
     </row>
     <row r="21" spans="1:4" ht="13.8">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
     </row>
     <row r="22" spans="1:4" ht="13.8">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
     </row>
     <row r="23" spans="1:4" ht="13.8">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
     </row>
     <row r="24" spans="1:4" ht="13.8">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:4" ht="13.8">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:4" ht="13.8">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:4" ht="13.8">
-      <c r="A27" s="22"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
     </row>
     <row r="28" spans="1:4" ht="13.8">
-      <c r="A28" s="19"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
     </row>
     <row r="29" spans="1:4" ht="13.8">
-      <c r="A29" s="19"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
     </row>
     <row r="30" spans="1:4" ht="13.8">
-      <c r="A30" s="20"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
     </row>
     <row r="31" spans="1:4" ht="13.8">
-      <c r="A31" s="20"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="18"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1417,211 +1496,260 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14A43C49-60AE-4F1A-92E1-9DA21BD89A98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA47DBF8-7990-48C6-9C37-C0F5D1CA1D64}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1" spans="1:4" ht="17.399999999999999">
-      <c r="A1" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="A1" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4" ht="15.6">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4" ht="13.8">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
     </row>
     <row r="4" spans="1:4" ht="41.4">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="25" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.8">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:4" ht="13.8">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="25" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="13.8">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:4" ht="13.8">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="25" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="13.8">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+    </row>
+    <row r="10" spans="1:4" ht="13.8">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+    </row>
+    <row r="11" spans="1:4" ht="13.8">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.6">
+      <c r="A12" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+    </row>
+    <row r="13" spans="1:4" ht="13.8">
+      <c r="A13" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="13.8">
+      <c r="A14" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="25"/>
+    </row>
+    <row r="15" spans="1:4" ht="13.8">
+      <c r="A15" s="26"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.6">
+      <c r="A16" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" ht="13.8">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" ht="13.8">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.6">
-      <c r="A12" s="14" t="s">
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+    </row>
+    <row r="17" spans="1:4" ht="13.8">
+      <c r="A17" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="13.8">
+      <c r="A18" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-    </row>
-    <row r="13" spans="1:4" ht="13.8">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" ht="13.8">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" ht="13.8">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" ht="15.6">
-      <c r="A16" s="14" t="s">
+      <c r="B18" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-    </row>
-    <row r="17" spans="1:4" ht="13.8">
-      <c r="A17" s="10" t="s">
+      <c r="C18" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D18" s="35" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="24"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="13.8">
-      <c r="A18" s="1"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="9" t="s">
-        <v>48</v>
-      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="15"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
     </row>
     <row r="22" spans="1:4" ht="15">
-      <c r="A22" s="6"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
     </row>
     <row r="23" spans="1:4" ht="15">
-      <c r="A23" s="6"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
     </row>
     <row r="24" spans="1:4" ht="15">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="8"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
     </row>
     <row r="26" spans="1:4" ht="15">
-      <c r="A26" s="7"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="8"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
     </row>
     <row r="28" spans="1:4" ht="15">
-      <c r="A28" s="7"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1646,20 +1774,20 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1" spans="1:4" ht="17.399999999999999">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4" ht="15.6">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4" ht="13.8">
       <c r="A3" s="1" t="s">
@@ -1751,12 +1879,12 @@
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" ht="15.6">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
     </row>
     <row r="12" spans="1:4" ht="13.8">
       <c r="A12" s="1" t="s">
@@ -1781,12 +1909,12 @@
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" ht="15.6">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
     </row>
     <row r="16" spans="1:4" ht="13.8">
       <c r="A16" s="1" t="s">
@@ -1813,10 +1941,10 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="15"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
     </row>
     <row r="21" spans="1:4" ht="15">
       <c r="A21" s="6"/>

--- a/assets/BOs/Gaia.xlsx
+++ b/assets/BOs/Gaia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C474E04-87D7-46E8-9A6C-D6ED7E005C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2184FD7-29BC-4680-96B8-8ADAF2E8E868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil4" sheetId="5" r:id="rId1"/>
@@ -646,9 +646,6 @@
     <t>As soon as you get to classical age be ready to pump on water!</t>
   </si>
   <si>
-    <t>Standard Gaia Water - By Narcotic</t>
-  </si>
-  <si>
     <t>Send a vill to make your second and third dock  (if medit) or build even a third dock on the opposite side (if anatolia)</t>
   </si>
   <si>
@@ -699,6 +696,9 @@
   </si>
   <si>
     <t>For 1 tc</t>
+  </si>
+  <si>
+    <t>Standard Gaia Water - By Kvoth</t>
   </si>
 </sst>
 </file>
@@ -938,7 +938,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -969,39 +969,6 @@
     <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="164" fontId="24" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1010,6 +977,24 @@
     <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="164" fontId="24" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Excel Built-in Hyperlink" xfId="3" xr:uid="{18FDA462-16A3-4309-97B4-057B8808F174}"/>
@@ -1236,26 +1221,26 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1" spans="1:4" ht="21">
-      <c r="A1" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="A1" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" ht="13.8">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:4" ht="13.8">
       <c r="A3" s="11" t="s">
@@ -1350,12 +1335,12 @@
       <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:4" ht="15.6">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
     </row>
     <row r="13" spans="1:4" ht="13.8">
       <c r="A13" s="10" t="s">
@@ -1370,7 +1355,7 @@
         <v>66</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -1499,257 +1484,231 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA47DBF8-7990-48C6-9C37-C0F5D1CA1D64}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1" spans="1:4" ht="17.399999999999999">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:4" ht="15.6">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" ht="13.8">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" ht="41.4">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.8">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="13.8">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="13.8">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="25"/>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="13.8">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="13.8">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="13.8">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" ht="13.8">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.6">
+      <c r="A12" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+    </row>
+    <row r="13" spans="1:4" ht="13.8">
+      <c r="A13" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-    </row>
-    <row r="10" spans="1:4" ht="13.8">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-    </row>
-    <row r="11" spans="1:4" ht="13.8">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.6">
-      <c r="A12" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-    </row>
-    <row r="13" spans="1:4" ht="13.8">
-      <c r="A13" s="37" t="s">
+      <c r="B13" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="C13" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="D13" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="38" t="s">
+    </row>
+    <row r="14" spans="1:4" ht="13.8">
+      <c r="A14" s="20" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="13.8">
-      <c r="A14" s="37" t="s">
+      <c r="B14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="25" t="s">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" ht="13.8">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.6">
+      <c r="A16" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+    </row>
+    <row r="17" spans="1:4" ht="13.8">
+      <c r="A17" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="25"/>
-    </row>
-    <row r="15" spans="1:4" ht="13.8">
-      <c r="A15" s="26"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-    </row>
-    <row r="16" spans="1:4" ht="15.6">
-      <c r="A16" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-    </row>
-    <row r="17" spans="1:4" ht="13.8">
-      <c r="A17" s="36" t="s">
+      <c r="B17" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="D17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="13.8">
+      <c r="A18" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="24" t="s">
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="18" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="13.8">
-      <c r="A18" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="35" t="s">
-        <v>83</v>
-      </c>
-    </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="24"/>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="22"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
     </row>
     <row r="22" spans="1:4" ht="15">
-      <c r="A22" s="29"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
+      <c r="A22" s="6"/>
     </row>
     <row r="23" spans="1:4" ht="15">
-      <c r="A23" s="29"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
+      <c r="A23" s="6"/>
     </row>
     <row r="24" spans="1:4" ht="15">
-      <c r="A24" s="29"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="31"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
+      <c r="A25" s="8"/>
     </row>
     <row r="26" spans="1:4" ht="15">
-      <c r="A26" s="30"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
+      <c r="A26" s="7"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="31"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
+      <c r="A27" s="8"/>
     </row>
     <row r="28" spans="1:4" ht="15">
-      <c r="A28" s="30"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
+      <c r="A28" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1767,27 +1726,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2812378-9C7F-48F5-97DE-23911E57C433}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1" spans="1:4" ht="17.399999999999999">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:4" ht="15.6">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" ht="13.8">
       <c r="A3" s="1" t="s">
@@ -1879,12 +1838,12 @@
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" ht="15.6">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
     </row>
     <row r="12" spans="1:4" ht="13.8">
       <c r="A12" s="1" t="s">
@@ -1909,12 +1868,12 @@
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" ht="15.6">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
     </row>
     <row r="16" spans="1:4" ht="13.8">
       <c r="A16" s="1" t="s">
@@ -1941,10 +1900,10 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="22"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
     </row>
     <row r="21" spans="1:4" ht="15">
       <c r="A21" s="6"/>
